--- a/document/接口文档.xlsx
+++ b/document/接口文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/licheng/Documents/lijincheng/hello_world/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/licheng/Documents/lijincheng/dinner-chiken/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>注册</t>
     <rPh sb="0" eb="1">
@@ -668,6 +668,55 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户名是否存在</t>
+    <rPh sb="0" eb="1">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cun z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 登陆成功
+501 账号不存在
+502 密码不正确</t>
+    <rPh sb="4" eb="5">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng ogng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cun z</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zheng que</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +761,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,6 +1058,7 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="53.1640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,25 +1144,28 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1118,67 +1174,67 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -1187,7 +1243,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -1196,7 +1252,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1205,62 +1261,71 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
